--- a/public/templates/Excel-Template.xlsx
+++ b/public/templates/Excel-Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyWorkSpace\CPJ-Space\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\CricketPanditJI\admin\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77436D4-AC20-4942-912D-74B06F52161B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80971848-C018-41ED-BF60-C14B0B4C3E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="35">
-  <si>
-    <t>Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Aries </t>
   </si>
@@ -301,242 +298,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Auspicious day that is going to reward you with benefits and positive results. You have to take calculative risks to make more profits from this day. Be more spntaneous. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Tip: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Keep a small silver dish or moon shaped object with you to increase your success rate. I Auspicious </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">A neutral day when we talk about profits and results. Make sure you listening or taking sound advice from people concerned or people who have knowledge regarding the game before making any decisions. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Tip: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Lighting incense sticks and reciting paryer for abundance and success is likely to benefit you.I Average </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Not a good day to indulge in any kind of speculative activity. I Bad </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Auspicious day that is going to reward you with benefits and positive results. However, you have to try and be more adaptable and innovative while making your moves. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Tip:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Before you begin, take a moment to set your intentions. Focus on what you hope to achieve through your speculative endeavors and visualize your goals</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> I Auspicious </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Good day that is likely to reward you with profits. However, make sure you are fully attentive as there may be times where you can be distracted or lazy. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Tip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">: Keep your pet close to you while you are amking decisions, it will help you get better success. I Better </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">A neutral day when we talk about profits and results. Make sure you listening or taking sound advice from people concerned or people who have knowledge regarding the game before making any decisions. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Tip: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">You can make offerings to the moon or any deities or entities that you believe are relevant to your successI Average </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Auspicious day that is going to reward you with benefits and positive results. Be more spntaneous and not ove rconfident. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Tip : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Talk to someone special or a person that is very close to you. It will help you get great success. I Auspicious </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">A neutral day when we talk about profits and results. Make sure you listening or taking sound advice from people concerned or people who have knowledge regarding the game before making any decisions. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Tip: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Count family money before making any decisions, it will provide you better success. I Average </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Good day that is likely to reward you with profits. However, make sure you stick to your first decision, do not change very often. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Tip: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Keeping something in blue with you is likely to help you get better results. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Good day that is likely to reward you with profits. However, take decisions based on intuition rather than impression. Otherwise, a good day to book profits.</t>
     </r>
     <r>
@@ -555,28 +316,6 @@
         <rFont val="Arial"/>
       </rPr>
       <t>: Spend time visualizing your success in speculation and affirming your confidence in your abilitiesI Auspicious |9| Dark Brown| North East | 12:11-13:08 p.m.| 14:05 - 14:59 | 15:30 - 16:30 | 16:30 17:25 | 20:08 - 22:10 | ॐ भौं भौमाय नम:" |</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Good day that is likely to reward you with profits. However, take decisions based on intuition rather than impression. Otherwise, a good day to book profits.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Tip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">: Spend time visualizing your success in speculation and affirming your confidence in your abilitiesI Auspicious </t>
     </r>
   </si>
   <si>
@@ -653,16 +392,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -891,21 +627,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI180"/>
+  <dimension ref="A1:AH180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="18" max="18" width="20.21875" customWidth="1"/>
-    <col min="26" max="26" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="17" max="17" width="20.21875" customWidth="1"/>
+    <col min="25" max="25" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -931,10 +667,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -942,273 +678,160 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:35" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>32</v>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:35" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="3" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-    </row>
-    <row r="5" spans="1:35" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="5"/>
+    </row>
+    <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="10"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="3"/>
-    </row>
-    <row r="6" spans="1:35" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="3"/>
+    </row>
+    <row r="6" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="5"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -1220,1209 +843,506 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="3"/>
-    </row>
-    <row r="7" spans="1:35" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="3"/>
+    </row>
+    <row r="7" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:35" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:35" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="9" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:35" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="10" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:35" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="11" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:35" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="12" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:35" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="13" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:35" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="14" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:35" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="15" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:35" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="16" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="17" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="18" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="19" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="20" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:18" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="21" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="22" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="23" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="24" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="25" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:18" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="26" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:18" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="27" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:18" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="28" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:18" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="29" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="1:18" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="30" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-    </row>
-    <row r="31" spans="1:18" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="31" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="1:18" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="32" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+    </row>
+    <row r="33" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2438,11 +1358,10 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-    </row>
-    <row r="34" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+    </row>
+    <row r="34" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2458,11 +1377,10 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-    </row>
-    <row r="35" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+    </row>
+    <row r="35" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2478,9 +1396,8 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-    </row>
-    <row r="36" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2498,9 +1415,8 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-    </row>
-    <row r="37" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2518,9 +1434,8 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-    </row>
-    <row r="38" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2538,9 +1453,8 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-    </row>
-    <row r="39" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2558,9 +1472,8 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2578,9 +1491,8 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2598,9 +1510,8 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-    </row>
-    <row r="42" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2618,9 +1529,8 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-    </row>
-    <row r="43" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2638,9 +1548,8 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-    </row>
-    <row r="44" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2658,9 +1567,8 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-    </row>
-    <row r="45" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2678,9 +1586,8 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-    </row>
-    <row r="46" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2698,9 +1605,8 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-    </row>
-    <row r="47" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2718,9 +1624,8 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-    </row>
-    <row r="48" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2738,9 +1643,8 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2758,9 +1662,8 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-    </row>
-    <row r="50" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2778,9 +1681,8 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-    </row>
-    <row r="51" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2798,9 +1700,8 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2818,9 +1719,8 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2838,9 +1738,8 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-    </row>
-    <row r="54" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2858,9 +1757,8 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-    </row>
-    <row r="55" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2878,9 +1776,8 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2898,9 +1795,8 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2918,9 +1814,8 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-    </row>
-    <row r="58" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2938,9 +1833,8 @@
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-    </row>
-    <row r="59" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2958,9 +1852,8 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-    </row>
-    <row r="60" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2978,9 +1871,8 @@
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-    </row>
-    <row r="61" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2998,9 +1890,8 @@
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-    </row>
-    <row r="62" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3018,9 +1909,8 @@
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3038,9 +1928,8 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-    </row>
-    <row r="64" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3058,9 +1947,8 @@
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3078,9 +1966,8 @@
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-    </row>
-    <row r="66" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3098,9 +1985,8 @@
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3118,9 +2004,8 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3138,9 +2023,8 @@
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-    </row>
-    <row r="69" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3158,9 +2042,8 @@
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-    </row>
-    <row r="70" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3178,9 +2061,8 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-    </row>
-    <row r="71" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3198,9 +2080,8 @@
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-    </row>
-    <row r="72" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3218,9 +2099,8 @@
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-    </row>
-    <row r="73" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3238,9 +2118,8 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-    </row>
-    <row r="74" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3258,9 +2137,8 @@
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-    </row>
-    <row r="75" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3278,9 +2156,8 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-    </row>
-    <row r="76" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3298,9 +2175,8 @@
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-    </row>
-    <row r="77" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3318,9 +2194,8 @@
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-    </row>
-    <row r="78" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3338,9 +2213,8 @@
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-    </row>
-    <row r="79" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3358,9 +2232,8 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-    </row>
-    <row r="80" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3378,9 +2251,8 @@
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-    </row>
-    <row r="81" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3398,9 +2270,8 @@
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-    </row>
-    <row r="82" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3418,9 +2289,8 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3438,9 +2308,8 @@
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-    </row>
-    <row r="84" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3458,9 +2327,8 @@
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-    </row>
-    <row r="85" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3478,9 +2346,8 @@
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-    </row>
-    <row r="86" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3498,9 +2365,8 @@
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
-    </row>
-    <row r="87" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3518,9 +2384,8 @@
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
-    </row>
-    <row r="88" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3538,9 +2403,8 @@
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-    </row>
-    <row r="89" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3558,9 +2422,8 @@
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
-    </row>
-    <row r="90" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3578,9 +2441,8 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3598,9 +2460,8 @@
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
-    </row>
-    <row r="92" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3618,9 +2479,8 @@
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
-    </row>
-    <row r="93" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3638,9 +2498,8 @@
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
-    </row>
-    <row r="94" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3658,9 +2517,8 @@
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
-    </row>
-    <row r="95" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3678,9 +2536,8 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3698,9 +2555,8 @@
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
-    </row>
-    <row r="97" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3718,9 +2574,8 @@
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-    </row>
-    <row r="98" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3738,9 +2593,8 @@
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-    </row>
-    <row r="99" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3758,9 +2612,8 @@
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-    </row>
-    <row r="100" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3778,9 +2631,8 @@
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-    </row>
-    <row r="101" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3798,9 +2650,8 @@
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
-    </row>
-    <row r="102" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3818,9 +2669,8 @@
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
-    </row>
-    <row r="103" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3838,9 +2688,8 @@
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
-      <c r="R103" s="3"/>
-    </row>
-    <row r="104" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3858,9 +2707,8 @@
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
-      <c r="R104" s="3"/>
-    </row>
-    <row r="105" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3878,9 +2726,8 @@
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
-      <c r="R105" s="3"/>
-    </row>
-    <row r="106" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3898,9 +2745,8 @@
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
-      <c r="R106" s="3"/>
-    </row>
-    <row r="107" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3918,9 +2764,8 @@
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
-      <c r="R107" s="3"/>
-    </row>
-    <row r="108" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3938,9 +2783,8 @@
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
-      <c r="R108" s="3"/>
-    </row>
-    <row r="109" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3958,9 +2802,8 @@
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
-      <c r="R109" s="3"/>
-    </row>
-    <row r="110" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3978,9 +2821,8 @@
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
-      <c r="R110" s="3"/>
-    </row>
-    <row r="111" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3998,9 +2840,8 @@
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
-      <c r="R111" s="3"/>
-    </row>
-    <row r="112" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4018,9 +2859,8 @@
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
-      <c r="R112" s="3"/>
-    </row>
-    <row r="113" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -4038,9 +2878,8 @@
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
-    </row>
-    <row r="114" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -4058,9 +2897,8 @@
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
-      <c r="R114" s="3"/>
-    </row>
-    <row r="115" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -4078,9 +2916,8 @@
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
-    </row>
-    <row r="116" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -4098,9 +2935,8 @@
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
-      <c r="R116" s="3"/>
-    </row>
-    <row r="117" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -4118,9 +2954,8 @@
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
-      <c r="R117" s="3"/>
-    </row>
-    <row r="118" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -4138,9 +2973,8 @@
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
-      <c r="R118" s="3"/>
-    </row>
-    <row r="119" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -4158,9 +2992,8 @@
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
-      <c r="R119" s="3"/>
-    </row>
-    <row r="120" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -4178,9 +3011,8 @@
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
-      <c r="R120" s="3"/>
-    </row>
-    <row r="121" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4198,9 +3030,8 @@
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
-      <c r="R121" s="3"/>
-    </row>
-    <row r="122" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4218,9 +3049,8 @@
       <c r="O122" s="3"/>
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
-      <c r="R122" s="3"/>
-    </row>
-    <row r="123" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4238,9 +3068,8 @@
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
-      <c r="R123" s="3"/>
-    </row>
-    <row r="124" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4258,9 +3087,8 @@
       <c r="O124" s="3"/>
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
-      <c r="R124" s="3"/>
-    </row>
-    <row r="125" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4278,9 +3106,8 @@
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
       <c r="Q125" s="3"/>
-      <c r="R125" s="3"/>
-    </row>
-    <row r="126" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4298,9 +3125,8 @@
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
-      <c r="R126" s="3"/>
-    </row>
-    <row r="127" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4318,9 +3144,8 @@
       <c r="O127" s="3"/>
       <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
-      <c r="R127" s="3"/>
-    </row>
-    <row r="128" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4338,9 +3163,8 @@
       <c r="O128" s="3"/>
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
-      <c r="R128" s="3"/>
-    </row>
-    <row r="129" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4358,9 +3182,8 @@
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
-      <c r="R129" s="3"/>
-    </row>
-    <row r="130" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4378,9 +3201,8 @@
       <c r="O130" s="3"/>
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
-      <c r="R130" s="3"/>
-    </row>
-    <row r="131" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4398,9 +3220,8 @@
       <c r="O131" s="3"/>
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
-      <c r="R131" s="3"/>
-    </row>
-    <row r="132" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4418,9 +3239,8 @@
       <c r="O132" s="3"/>
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
-      <c r="R132" s="3"/>
-    </row>
-    <row r="133" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4438,9 +3258,8 @@
       <c r="O133" s="3"/>
       <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
-      <c r="R133" s="3"/>
-    </row>
-    <row r="134" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4458,9 +3277,8 @@
       <c r="O134" s="3"/>
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
-      <c r="R134" s="3"/>
-    </row>
-    <row r="135" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4478,9 +3296,8 @@
       <c r="O135" s="3"/>
       <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
-      <c r="R135" s="3"/>
-    </row>
-    <row r="136" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4498,9 +3315,8 @@
       <c r="O136" s="3"/>
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
-      <c r="R136" s="3"/>
-    </row>
-    <row r="137" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4518,9 +3334,8 @@
       <c r="O137" s="3"/>
       <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
-      <c r="R137" s="3"/>
-    </row>
-    <row r="138" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4538,9 +3353,8 @@
       <c r="O138" s="3"/>
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
-      <c r="R138" s="3"/>
-    </row>
-    <row r="139" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4558,9 +3372,8 @@
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
-      <c r="R139" s="3"/>
-    </row>
-    <row r="140" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4578,9 +3391,8 @@
       <c r="O140" s="3"/>
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
-      <c r="R140" s="3"/>
-    </row>
-    <row r="141" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4598,9 +3410,8 @@
       <c r="O141" s="3"/>
       <c r="P141" s="3"/>
       <c r="Q141" s="3"/>
-      <c r="R141" s="3"/>
-    </row>
-    <row r="142" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4618,9 +3429,8 @@
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
-      <c r="R142" s="3"/>
-    </row>
-    <row r="143" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4638,9 +3448,8 @@
       <c r="O143" s="3"/>
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
-      <c r="R143" s="3"/>
-    </row>
-    <row r="144" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4658,9 +3467,8 @@
       <c r="O144" s="3"/>
       <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
-      <c r="R144" s="3"/>
-    </row>
-    <row r="145" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4678,9 +3486,8 @@
       <c r="O145" s="3"/>
       <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
-      <c r="R145" s="3"/>
-    </row>
-    <row r="146" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4698,9 +3505,8 @@
       <c r="O146" s="3"/>
       <c r="P146" s="3"/>
       <c r="Q146" s="3"/>
-      <c r="R146" s="3"/>
-    </row>
-    <row r="147" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4718,9 +3524,8 @@
       <c r="O147" s="3"/>
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
-      <c r="R147" s="3"/>
-    </row>
-    <row r="148" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4738,9 +3543,8 @@
       <c r="O148" s="3"/>
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
-      <c r="R148" s="3"/>
-    </row>
-    <row r="149" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4758,9 +3562,8 @@
       <c r="O149" s="3"/>
       <c r="P149" s="3"/>
       <c r="Q149" s="3"/>
-      <c r="R149" s="3"/>
-    </row>
-    <row r="150" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4778,9 +3581,8 @@
       <c r="O150" s="3"/>
       <c r="P150" s="3"/>
       <c r="Q150" s="3"/>
-      <c r="R150" s="3"/>
-    </row>
-    <row r="151" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4798,9 +3600,8 @@
       <c r="O151" s="3"/>
       <c r="P151" s="3"/>
       <c r="Q151" s="3"/>
-      <c r="R151" s="3"/>
-    </row>
-    <row r="152" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4818,9 +3619,8 @@
       <c r="O152" s="3"/>
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
-      <c r="R152" s="3"/>
-    </row>
-    <row r="153" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4838,9 +3638,8 @@
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
-      <c r="R153" s="3"/>
-    </row>
-    <row r="154" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4858,9 +3657,8 @@
       <c r="O154" s="3"/>
       <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
-      <c r="R154" s="3"/>
-    </row>
-    <row r="155" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4878,9 +3676,8 @@
       <c r="O155" s="3"/>
       <c r="P155" s="3"/>
       <c r="Q155" s="3"/>
-      <c r="R155" s="3"/>
-    </row>
-    <row r="156" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4898,9 +3695,8 @@
       <c r="O156" s="3"/>
       <c r="P156" s="3"/>
       <c r="Q156" s="3"/>
-      <c r="R156" s="3"/>
-    </row>
-    <row r="157" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4918,9 +3714,8 @@
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
       <c r="Q157" s="3"/>
-      <c r="R157" s="3"/>
-    </row>
-    <row r="158" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4938,9 +3733,8 @@
       <c r="O158" s="3"/>
       <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
-      <c r="R158" s="3"/>
-    </row>
-    <row r="159" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4958,9 +3752,8 @@
       <c r="O159" s="3"/>
       <c r="P159" s="3"/>
       <c r="Q159" s="3"/>
-      <c r="R159" s="3"/>
-    </row>
-    <row r="160" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -4978,9 +3771,8 @@
       <c r="O160" s="3"/>
       <c r="P160" s="3"/>
       <c r="Q160" s="3"/>
-      <c r="R160" s="3"/>
-    </row>
-    <row r="161" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -4998,9 +3790,8 @@
       <c r="O161" s="3"/>
       <c r="P161" s="3"/>
       <c r="Q161" s="3"/>
-      <c r="R161" s="3"/>
-    </row>
-    <row r="162" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -5018,9 +3809,8 @@
       <c r="O162" s="3"/>
       <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
-      <c r="R162" s="3"/>
-    </row>
-    <row r="163" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -5038,9 +3828,8 @@
       <c r="O163" s="3"/>
       <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
-      <c r="R163" s="3"/>
-    </row>
-    <row r="164" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5058,9 +3847,8 @@
       <c r="O164" s="3"/>
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
-      <c r="R164" s="3"/>
-    </row>
-    <row r="165" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5078,9 +3866,8 @@
       <c r="O165" s="3"/>
       <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
-      <c r="R165" s="3"/>
-    </row>
-    <row r="166" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -5098,9 +3885,8 @@
       <c r="O166" s="3"/>
       <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
-      <c r="R166" s="3"/>
-    </row>
-    <row r="167" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5118,9 +3904,8 @@
       <c r="O167" s="3"/>
       <c r="P167" s="3"/>
       <c r="Q167" s="3"/>
-      <c r="R167" s="3"/>
-    </row>
-    <row r="168" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5138,9 +3923,8 @@
       <c r="O168" s="3"/>
       <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
-      <c r="R168" s="3"/>
-    </row>
-    <row r="169" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5158,9 +3942,8 @@
       <c r="O169" s="3"/>
       <c r="P169" s="3"/>
       <c r="Q169" s="3"/>
-      <c r="R169" s="3"/>
-    </row>
-    <row r="170" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5178,9 +3961,8 @@
       <c r="O170" s="3"/>
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
-      <c r="R170" s="3"/>
-    </row>
-    <row r="171" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -5198,9 +3980,8 @@
       <c r="O171" s="3"/>
       <c r="P171" s="3"/>
       <c r="Q171" s="3"/>
-      <c r="R171" s="3"/>
-    </row>
-    <row r="172" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5218,9 +3999,8 @@
       <c r="O172" s="3"/>
       <c r="P172" s="3"/>
       <c r="Q172" s="3"/>
-      <c r="R172" s="3"/>
-    </row>
-    <row r="173" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -5238,9 +4018,8 @@
       <c r="O173" s="3"/>
       <c r="P173" s="3"/>
       <c r="Q173" s="3"/>
-      <c r="R173" s="3"/>
-    </row>
-    <row r="174" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -5258,9 +4037,8 @@
       <c r="O174" s="3"/>
       <c r="P174" s="3"/>
       <c r="Q174" s="3"/>
-      <c r="R174" s="3"/>
-    </row>
-    <row r="175" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -5278,9 +4056,8 @@
       <c r="O175" s="3"/>
       <c r="P175" s="3"/>
       <c r="Q175" s="3"/>
-      <c r="R175" s="3"/>
-    </row>
-    <row r="176" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -5298,9 +4075,8 @@
       <c r="O176" s="3"/>
       <c r="P176" s="3"/>
       <c r="Q176" s="3"/>
-      <c r="R176" s="3"/>
-    </row>
-    <row r="177" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -5318,9 +4094,8 @@
       <c r="O177" s="3"/>
       <c r="P177" s="3"/>
       <c r="Q177" s="3"/>
-      <c r="R177" s="3"/>
-    </row>
-    <row r="178" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -5338,9 +4113,8 @@
       <c r="O178" s="3"/>
       <c r="P178" s="3"/>
       <c r="Q178" s="3"/>
-      <c r="R178" s="3"/>
-    </row>
-    <row r="179" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -5358,9 +4132,8 @@
       <c r="O179" s="3"/>
       <c r="P179" s="3"/>
       <c r="Q179" s="3"/>
-      <c r="R179" s="3"/>
-    </row>
-    <row r="180" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -5378,7 +4151,6 @@
       <c r="O180" s="3"/>
       <c r="P180" s="3"/>
       <c r="Q180" s="3"/>
-      <c r="R180" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
